--- a/biology/Médecine/Défécation_obstruée/Défécation_obstruée.xlsx
+++ b/biology/Médecine/Défécation_obstruée/Défécation_obstruée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9f%C3%A9cation_obstru%C3%A9e</t>
+          <t>Défécation_obstruée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La défécation obstruée est «une difficulté à évacuer ou à vider le rectum [qui] peut survenir même avec des visites fréquentes aux toilettes et même en effectuant des mouvements doux circulatoires»[1]. Les conditions menant à ce symptôme sont parfois regroupées sous le nom de troubles de la défécation. Le symptôme du ténesme est un sujet étroitement lié.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La défécation obstruée est «une difficulté à évacuer ou à vider le rectum [qui] peut survenir même avec des visites fréquentes aux toilettes et même en effectuant des mouvements doux circulatoires». Les conditions menant à ce symptôme sont parfois regroupées sous le nom de troubles de la défécation. Le symptôme du ténesme est un sujet étroitement lié.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9f%C3%A9cation_obstru%C3%A9e</t>
+          <t>Défécation_obstruée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Définitions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'on peut aussi définir le « dysfonctionnement évacuatoire » comme « une constellation de symptômes tels que des efforts répétés prolongés au niveau des selles, une sensation d'évacuation incomplète et la nécessité d'une manipulation digitale ».
-Certains décrivent un « syndrome de défécation obstruée », le définissant vaguement comme « une difficulté à évacuer, qui peut ou non être associée à la constipation »[1].
-D'autres assimilent à tort la défécation obstruée à l'anisme[2] ; bien que l'anisme soit un type de défécation obstruée, la défécation obstruée a de nombreuses autres causes potentielles.
+Certains décrivent un « syndrome de défécation obstruée », le définissant vaguement comme « une difficulté à évacuer, qui peut ou non être associée à la constipation ».
+D'autres assimilent à tort la défécation obstruée à l'anisme ; bien que l'anisme soit un type de défécation obstruée, la défécation obstruée a de nombreuses autres causes potentielles.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9f%C3%A9cation_obstru%C3%A9e</t>
+          <t>Défécation_obstruée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Signes et symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tentatives d'évacuation incomplètes ou infructueuses
 Épisodes prolongés aux toilettes
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9f%C3%A9cation_obstru%C3%A9e</t>
+          <t>Défécation_obstruée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,20 +597,19 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une revue indique que les causes les plus courantes de perturbation du cycle de défécation sont associées à la grossesse et à l'accouchement, à la descendance gynécologique ou aux troubles neurogènes de l'axe cerveau-intestin[3]. Les patients présentant une défécation obstruée semblent avoir une fonction altérée du plancher pelvien[4].
-Anisme [5] et dysfonctionnement du plancher pelvien [6]
-Rectocèle [6],[3]
-"Invagination rectale" (fait probablement référence à une intussusception rectale ) [3]
-Hypertonie du sphincter anal interne [7]
-Sténose anale [6]
-Impaction fécale [6]
-Cancer rectal ou anal [6]
-Syndrome du périnée descendant [6]
-Évacuation incomplète
-Une défécation obstruée peut être une cause d'évacuation incomplète des selles[8]. La vidange normale du contenu rectal est de 90 à 100 %. Une évacuation inférieure à 90 % pourrait être définie comme une évacuation incomplète. L'évacuation incomplète est également l'un des facteurs impliqués dans la cause des fuites fécales.
-</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une revue indique que les causes les plus courantes de perturbation du cycle de défécation sont associées à la grossesse et à l'accouchement, à la descendance gynécologique ou aux troubles neurogènes de l'axe cerveau-intestin. Les patients présentant une défécation obstruée semblent avoir une fonction altérée du plancher pelvien.
+Anisme  et dysfonctionnement du plancher pelvien 
+Rectocèle ,
+"Invagination rectale" (fait probablement référence à une intussusception rectale ) 
+Hypertonie du sphincter anal interne 
+Sténose anale 
+Impaction fécale 
+Cancer rectal ou anal 
+Syndrome du périnée descendant </t>
         </is>
       </c>
     </row>
@@ -604,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9f%C3%A9cation_obstru%C3%A9e</t>
+          <t>Défécation_obstruée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,52 +634,127 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Évacuation incomplète</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une défécation obstruée peut être une cause d'évacuation incomplète des selles. La vidange normale du contenu rectal est de 90 à 100 %. Une évacuation inférieure à 90 % pourrait être définie comme une évacuation incomplète. L'évacuation incomplète est également l'un des facteurs impliqués dans la cause des fuites fécales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Défécation_obstruée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9f%C3%A9cation_obstru%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les deux principales caractéristiques de la défécation obstruée sont :
-Une incapacité à évacuer volontairement le contenu rectal[6]
-Un temps de transit colique normal [6]
-Un questionnaire en cinq points a été validé pour le diagnostic et le classement du syndrome de défécation obstruée[8]. Les paramètres en sont :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les deux principales caractéristiques de la défécation obstruée sont :
+Une incapacité à évacuer volontairement le contenu rectal
+Un temps de transit colique normal 
+Un questionnaire en cinq points a été validé pour le diagnostic et le classement du syndrome de défécation obstruée. Les paramètres en sont :
 Effort excessif
 Évacuation rectale incomplète
 Utilisation de lavements et/ou de laxatifs
 Digitations vaginales-anales-périnéales (besoin d'appuyer sur la paroi arrière du vagin ou sur le périnée pour faciliter la défécation)
-Inconfort et/ou douleur abdominale
-Classification
-La défécation obstruée est l'une des causes de la constipation chronique[4]. La défécation obstruée pourrait être considérée comme un type d'occlusion intestinale, où elle peut être classée dans l'obstruction du gros intestin. La défécation obstruée donne souvent lieu à un symptôme appelé ténesme . La constipation, l'occlusion intestinale et le ténesme sont donc tous des sujets étroitement liés[réf. nécessaire].
-L'obstruction de la sortie peut être classée en quatre groupes[9]:
+Inconfort et/ou douleur abdominale</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Défécation_obstruée</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9f%C3%A9cation_obstru%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La défécation obstruée est l'une des causes de la constipation chronique. La défécation obstruée pourrait être considérée comme un type d'occlusion intestinale, où elle peut être classée dans l'obstruction du gros intestin. La défécation obstruée donne souvent lieu à un symptôme appelé ténesme . La constipation, l'occlusion intestinale et le ténesme sont donc tous des sujets étroitement liés[réf. nécessaire].
+L'obstruction de la sortie peut être classée en quatre groupes:
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>D%C3%A9f%C3%A9cation_obstru%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Défécation_obstruée</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/D%C3%A9f%C3%A9cation_obstru%C3%A9e</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La défécation obstruée a de nombreuses causes, de sorte que la prise en charge dans chaque cas individuel est spécifique à la cause du symptôme. Pour l'intussusception interne rectale, le traitement est chirurgical (soit STARR, soit rectopexie). Pour rectocèle STARR ou implantation de filet. Pour la dyssynergie anisme/plancher pelvien, exercice de biofeedback[réf. nécessaire]
 </t>
